--- a/scratch/chap-06/assets/chap-06.xlsx
+++ b/scratch/chap-06/assets/chap-06.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents-Group-Xu\PhD-Thesis\phd-thesis\scratch\chap-06\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB0C56F-ED19-4E16-ACC7-1070AAB2AEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFD77C6-99E1-456B-9694-94C26B941A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3770" yWindow="2730" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{DF949D37-E19D-4076-8156-2D6EC15B98F4}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{DF949D37-E19D-4076-8156-2D6EC15B98F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
   <si>
     <t>BN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +225,126 @@
   </si>
   <si>
     <t>SO-trip</t>
+  </si>
+  <si>
+    <t>B3LYP</t>
+  </si>
+  <si>
+    <t>XYG3</t>
+  </si>
+  <si>
+    <t>XYG5</t>
+  </si>
+  <si>
+    <t>XYG6</t>
+  </si>
+  <si>
+    <t>XYG7</t>
+  </si>
+  <si>
+    <t>XYG-OS3</t>
+  </si>
+  <si>
+    <t>XYGJ-OS</t>
+  </si>
+  <si>
+    <t>XYG-OS5</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>LDA</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>[0.113675]</t>
+  </si>
+  <si>
+    <t>[0.297922]</t>
+  </si>
+  <si>
+    <t>[0.231657]</t>
+  </si>
+  <si>
+    <t>[0.520989]</t>
+  </si>
+  <si>
+    <t>[0.332837]</t>
+  </si>
+  <si>
+    <t>[0.338714]</t>
+  </si>
+  <si>
+    <t>B88</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>[0.]</t>
+  </si>
+  <si>
+    <t>VWN</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>[0.741727]</t>
+  </si>
+  <si>
+    <t>LYP</t>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t>[0.659253]</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>a6</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>a7</t>
+  </si>
+  <si>
+    <t>[0.340747]</t>
+  </si>
+  <si>
+    <t>isotropic</t>
+  </si>
+  <si>
+    <t>HR46</t>
+  </si>
+  <si>
+    <t>T144</t>
+  </si>
+  <si>
+    <t>HH101 (NSP)</t>
+  </si>
+  <si>
+    <t>HH101 (SP)</t>
+  </si>
+  <si>
+    <t>anisotropic</t>
+  </si>
+  <si>
+    <t>components</t>
+  </si>
+  <si>
+    <t>WTRE</t>
   </si>
 </sst>
 </file>
@@ -948,7 +1069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1384BA19-4039-4905-AA1E-D811DB108198}">
   <dimension ref="C2:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C30" sqref="C30:K37"/>
     </sheetView>
   </sheetViews>
@@ -1879,4 +2000,540 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9912F5-E82B-4280-8B39-C1EB9200565A}">
+  <dimension ref="B2:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3">
+        <v>0.330646</v>
+      </c>
+      <c r="F3">
+        <v>0.88738499999999998</v>
+      </c>
+      <c r="G3">
+        <v>0.84348000000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.70776899999999998</v>
+      </c>
+      <c r="I3">
+        <v>0.71487699999999998</v>
+      </c>
+      <c r="J3">
+        <v>0.79415100000000005</v>
+      </c>
+      <c r="K3">
+        <v>0.66716299999999995</v>
+      </c>
+      <c r="L3">
+        <v>0.68186400000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4">
+        <v>0.52364900000000003</v>
+      </c>
+      <c r="J4">
+        <v>0.20584899999999995</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5">
+        <v>0.55567900000000003</v>
+      </c>
+      <c r="F5">
+        <v>-0.185307</v>
+      </c>
+      <c r="G5">
+        <v>-7.5136999999999995E-2</v>
+      </c>
+      <c r="H5">
+        <v>-0.22875799999999999</v>
+      </c>
+      <c r="I5">
+        <v>-0.259884</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5">
+        <v>-2.0577999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6">
+        <v>0.99515399999999998</v>
+      </c>
+      <c r="I6">
+        <v>1.2714730000000001</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6">
+        <v>0.88324599999999998</v>
+      </c>
+      <c r="L6">
+        <v>1.1202259999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7">
+        <v>0.25827299999999997</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7">
+        <v>0.61521099999999995</v>
+      </c>
+      <c r="H7">
+        <v>-0.66710199999999997</v>
+      </c>
+      <c r="I7">
+        <v>-0.81169899999999995</v>
+      </c>
+      <c r="J7">
+        <v>0.67344700000000002</v>
+      </c>
+      <c r="K7">
+        <v>-0.50075400000000003</v>
+      </c>
+      <c r="L7">
+        <v>-0.61414800000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8">
+        <v>0.34074700000000002</v>
+      </c>
+      <c r="G8">
+        <v>0.40818399999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.36568099999999998</v>
+      </c>
+      <c r="I8">
+        <v>0.371477</v>
+      </c>
+      <c r="J8">
+        <v>0.41959200000000002</v>
+      </c>
+      <c r="K8">
+        <v>0.35308200000000001</v>
+      </c>
+      <c r="L8">
+        <v>0.35935099999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9">
+        <v>0.115199</v>
+      </c>
+      <c r="H9">
+        <v>4.9550999999999998E-2</v>
+      </c>
+      <c r="I9">
+        <v>3.8238000000000001E-2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.365399</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.92574699999999999</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.73936000000000002</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.56010300000000002</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.55309600000000003</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.71995299999999995</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.637382</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.66092899999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.101874</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.0042690000000001</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.72914100000000004</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.79354499999999994</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.78357900000000003</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.66787200000000002</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.87486200000000003</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.86742399999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.3068279999999999</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.3406279999999999</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.81468499999999999</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.87890900000000005</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.97115899999999999</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.91304099999999999</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.79954599999999998</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.85341800000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3.5766360000000001</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.1580469999999998</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.0354320000000001</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.287687</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1.106096</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2.1176469999999998</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1.2809330000000001</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1.123491</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5.2013109999999996</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2.1849720000000001</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2.2375949999999998</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2.29033</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2.3221829999999999</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2.565388</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2.5374780000000001</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2.585029</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6.0069710000000001</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.3425280000000002</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.826427</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2.2522880000000001</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2.2045780000000001</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.8531470000000001</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2.4309949999999998</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2.3668640000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.3978890000000002</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.4307879999999999</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.99849699999999997</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.020381</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1.130709</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.1184689999999999</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.94220999999999999</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1.0025120000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3.7246220000000001</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.395073</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2.2368649999999999</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.417789</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.2403150000000001</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2.3057940000000001</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1.4102140000000001</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1.258691</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.88375199999999998</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.471308</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.38815300000000003</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.34692299999999998</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.34190599999999999</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.40527800000000003</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.360344</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.355572</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/scratch/chap-06/assets/chap-06.xlsx
+++ b/scratch/chap-06/assets/chap-06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents-Group-Xu\PhD-Thesis\phd-thesis\scratch\chap-06\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFD77C6-99E1-456B-9694-94C26B941A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92919594-8125-411A-B8CA-8FFA6A31EE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{DF949D37-E19D-4076-8156-2D6EC15B98F4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="95">
   <si>
     <t>BN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,14 +345,19 @@
   </si>
   <si>
     <t>WTRE</t>
+  </si>
+  <si>
+    <t>parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="180" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -391,11 +396,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2004,13 +2012,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9912F5-E82B-4280-8B39-C1EB9200565A}">
-  <dimension ref="B2:L19"/>
+  <dimension ref="B2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H6" sqref="H6:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="5" max="12" width="9.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.45">
       <c r="E2" t="s">
@@ -2042,31 +2053,34 @@
       <c r="B3" t="s">
         <v>62</v>
       </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
       <c r="D3" t="s">
         <v>63</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>0.330646</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>0.88738499999999998</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>0.84348000000000001</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>0.70776899999999998</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>0.71487699999999998</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>0.79415100000000005</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>0.66716299999999995</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>0.68186400000000003</v>
       </c>
     </row>
@@ -2077,28 +2091,28 @@
       <c r="D4" t="s">
         <v>65</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>0.52364900000000003</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>0.20584899999999995</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2109,28 +2123,28 @@
       <c r="D5" t="s">
         <v>73</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>0.55567900000000003</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>-0.185307</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>-7.5136999999999995E-2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>-0.22875799999999999</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>-0.259884</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>-2.0577999999999999E-2</v>
       </c>
     </row>
@@ -2141,28 +2155,28 @@
       <c r="D6" t="s">
         <v>76</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>0.99515399999999998</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>1.2714730000000001</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <v>0.88324599999999998</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>1.1202259999999999</v>
       </c>
     </row>
@@ -2173,28 +2187,28 @@
       <c r="D7" t="s">
         <v>79</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>0.25827299999999997</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>0.61521099999999995</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>-0.66710199999999997</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>-0.81169899999999995</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>0.67344700000000002</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>-0.50075400000000003</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>-0.61414800000000003</v>
       </c>
     </row>
@@ -2205,28 +2219,28 @@
       <c r="D8" t="s">
         <v>82</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>0.34074700000000002</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>0.40818399999999999</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>0.36568099999999998</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>0.371477</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>0.41959200000000002</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <v>0.35308200000000001</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <v>0.35935099999999998</v>
       </c>
     </row>
@@ -2237,298 +2251,298 @@
       <c r="D9" t="s">
         <v>84</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>0.115199</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>4.9550999999999998E-2</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>3.8238000000000001E-2</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="2" t="s">
         <v>74</v>
       </c>
     </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.365399</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.92574699999999999</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.73936000000000002</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.56010300000000002</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.55309600000000003</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.71995299999999995</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.637382</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.66092899999999999</v>
+      </c>
+    </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="C11" t="s">
-        <v>86</v>
-      </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E11" s="1">
-        <v>1.365399</v>
+        <v>2.101874</v>
       </c>
       <c r="F11" s="1">
-        <v>0.92574699999999999</v>
+        <v>1.0042690000000001</v>
       </c>
       <c r="G11" s="1">
-        <v>0.73936000000000002</v>
+        <v>0.72914100000000004</v>
       </c>
       <c r="H11" s="1">
-        <v>0.56010300000000002</v>
+        <v>0.79354499999999994</v>
       </c>
       <c r="I11" s="1">
-        <v>0.55309600000000003</v>
+        <v>0.78357900000000003</v>
       </c>
       <c r="J11" s="1">
-        <v>0.71995299999999995</v>
+        <v>0.66787200000000002</v>
       </c>
       <c r="K11" s="1">
-        <v>0.637382</v>
+        <v>0.87486200000000003</v>
       </c>
       <c r="L11" s="1">
-        <v>0.66092899999999999</v>
+        <v>0.86742399999999997</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E12" s="1">
-        <v>2.101874</v>
+        <v>2.3068279999999999</v>
       </c>
       <c r="F12" s="1">
-        <v>1.0042690000000001</v>
+        <v>1.3406279999999999</v>
       </c>
       <c r="G12" s="1">
-        <v>0.72914100000000004</v>
+        <v>0.81468499999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>0.79354499999999994</v>
+        <v>0.87890900000000005</v>
       </c>
       <c r="I12" s="1">
-        <v>0.78357900000000003</v>
+        <v>0.97115899999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.66787200000000002</v>
+        <v>0.91304099999999999</v>
       </c>
       <c r="K12" s="1">
-        <v>0.87486200000000003</v>
+        <v>0.79954599999999998</v>
       </c>
       <c r="L12" s="1">
-        <v>0.86742399999999997</v>
+        <v>0.85341800000000001</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3.5766360000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2.1580469999999998</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2.0354320000000001</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.287687</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1.106096</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2.1176469999999998</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1.2809330000000001</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1.123491</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5.2013109999999996</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.1849720000000001</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.2375949999999998</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2.29033</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2.3221829999999999</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2.565388</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2.5374780000000001</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2.585029</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6.0069710000000001</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2.3425280000000002</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.826427</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2.2522880000000001</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2.2045780000000001</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.8531470000000001</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2.4309949999999998</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2.3668640000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="1">
-        <v>2.3068279999999999</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1.3406279999999999</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.81468499999999999</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.87890900000000005</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.97115899999999999</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.91304099999999999</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.79954599999999998</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0.85341800000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="D14" t="s">
+      <c r="E16" s="1">
+        <v>2.3978890000000002</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.4307879999999999</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.99849699999999997</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.020381</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1.130709</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.1184689999999999</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.94220999999999999</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1.0025120000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="1">
-        <v>3.5766360000000001</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2.1580469999999998</v>
-      </c>
-      <c r="G14" s="1">
-        <v>2.0354320000000001</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1.287687</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1.106096</v>
-      </c>
-      <c r="J14" s="1">
-        <v>2.1176469999999998</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1.2809330000000001</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1.123491</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="C15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5.2013109999999996</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2.1849720000000001</v>
-      </c>
-      <c r="G15" s="1">
-        <v>2.2375949999999998</v>
-      </c>
-      <c r="H15" s="1">
-        <v>2.29033</v>
-      </c>
-      <c r="I15" s="1">
-        <v>2.3221829999999999</v>
-      </c>
-      <c r="J15" s="1">
-        <v>2.565388</v>
-      </c>
-      <c r="K15" s="1">
-        <v>2.5374780000000001</v>
-      </c>
-      <c r="L15" s="1">
-        <v>2.585029</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="D16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="1">
-        <v>6.0069710000000001</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2.3425280000000002</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1.826427</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2.2522880000000001</v>
-      </c>
-      <c r="I16" s="1">
-        <v>2.2045780000000001</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1.8531470000000001</v>
-      </c>
-      <c r="K16" s="1">
-        <v>2.4309949999999998</v>
-      </c>
-      <c r="L16" s="1">
-        <v>2.3668640000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" t="s">
-        <v>89</v>
-      </c>
       <c r="E17" s="1">
-        <v>2.3978890000000002</v>
+        <v>3.7246220000000001</v>
       </c>
       <c r="F17" s="1">
-        <v>1.4307879999999999</v>
+        <v>2.395073</v>
       </c>
       <c r="G17" s="1">
-        <v>0.99849699999999997</v>
+        <v>2.2368649999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1.020381</v>
+        <v>1.417789</v>
       </c>
       <c r="I17" s="1">
-        <v>1.130709</v>
+        <v>1.2403150000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>1.1184689999999999</v>
+        <v>2.3057940000000001</v>
       </c>
       <c r="K17" s="1">
-        <v>0.94220999999999999</v>
+        <v>1.4102140000000001</v>
       </c>
       <c r="L17" s="1">
-        <v>1.0025120000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.45">
+        <v>1.258691</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E18" s="1">
-        <v>3.7246220000000001</v>
+        <v>0.88375199999999998</v>
       </c>
       <c r="F18" s="1">
-        <v>2.395073</v>
+        <v>0.471308</v>
       </c>
       <c r="G18" s="1">
-        <v>2.2368649999999999</v>
+        <v>0.38815300000000003</v>
       </c>
       <c r="H18" s="1">
-        <v>1.417789</v>
+        <v>0.34692299999999998</v>
       </c>
       <c r="I18" s="1">
-        <v>1.2403150000000001</v>
+        <v>0.34190599999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>2.3057940000000001</v>
+        <v>0.40527800000000003</v>
       </c>
       <c r="K18" s="1">
-        <v>1.4102140000000001</v>
+        <v>0.360344</v>
       </c>
       <c r="L18" s="1">
-        <v>1.258691</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="D19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.88375199999999998</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.471308</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.38815300000000003</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.34692299999999998</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.34190599999999999</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0.40527800000000003</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0.360344</v>
-      </c>
-      <c r="L19" s="1">
         <v>0.355572</v>
       </c>
     </row>
